--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
   <si>
     <t xml:space="preserve">DISEÑO ESTRUCTURAS: WORDIX</t>
   </si>
@@ -57,6 +57,32 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Apellido y nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:Navarro Pablo Andres</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrera: TUDW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">N.º Legajo</t>
     </r>
     <r>
@@ -71,7 +97,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Email: facundomorales124@gmail.com</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N.º Legajo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: facundonmorales124@gmai.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: navarropabloq@gmail.com</t>
   </si>
   <si>
     <r>
@@ -97,156 +149,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Repositorio: https://github.com/facundonmorales/wordix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$coleccionPalabras=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//indices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUJER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RASGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUEVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUYOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEGRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIBRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//valores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información de la estructura:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de datos: Almacena valores String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Guarda las palabras con las que se pueden jugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$partida =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palabraWordix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jugador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">puntaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo: Asociativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de datos:  Almacena Int y String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Guarda el resumen de la partida/resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$coleccionPartidas =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//indice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“palabraWordix” =&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“jugador” =&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“intentos” =&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“puntaje” =&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo: Indexado – Asociativo</t>
-  </si>
-  <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Tipos de datos:  Almacena arreglos: jugador y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> palabraWordix </t>
+      <t xml:space="preserve">Github</t>
     </r>
     <r>
       <rPr>
@@ -256,11 +168,302 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">almacenan String, el array intentos almacena Int,</t>
+      <t xml:space="preserve">: pablonq</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Repositorio: https://github.com/facundonmorales/wordix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$coleccionPalabras=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUEVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUYOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de la estructura:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Indexado (los índices son numéricos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos: Almacena valores String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Guarda las palabras con las que se pueden jugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$partida =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palabraWordix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puntaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Asociativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  Almacena Int y String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Guarda el resumen de la partida/resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$coleccionPartidas =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“palabraWordix” =&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“jugador” =&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intentos” =&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“puntaje” =&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Multidimensional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  Almacena arreglos: jugador y  palabraWordix almacenan String, el array intentos almacena Int,</t>
+  </si>
+  <si>
     <t xml:space="preserve">¿Para qué se utiliza?: Almacena el resumen de las partidas que se han jugado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$teclado =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ñ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO_LETRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_DISPONIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  Almacena String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Almacena el estado de las letras por su color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ordenTeclado=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Almacena el orden en el que se muestra el teclado por pantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$resumenJugador=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“nombre”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“partidas”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“puntaje”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“victorias”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento1”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento2”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento3”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento4”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento5”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“intento6”=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  Almacena Arrays que almacenan enteros y los nombres de los jugadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Almacena el resumen de partidas de cada jugador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$estructuraPalabraIntento = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$estructuraIntentosWordix = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos:  Constantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utilizada?: Almacena la estructura wordix modificada por el intento</t>
   </si>
 </sst>
 </file>
@@ -270,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -317,14 +520,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,13 +531,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAEBD7"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF0FFF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0FFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFF0FFF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFF0"/>
+        <bgColor rgb="FFE0FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,11 +642,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +658,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +674,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,13 +722,13 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF0FFF0"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF00FF7F"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
@@ -534,13 +787,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1000"/>
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.29"/>
@@ -559,6 +812,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
@@ -566,49 +820,92 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0</v>
@@ -671,73 +968,73 @@
         <v>19</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,25 +1043,25 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,34 +1075,34 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="15" t="n">
-        <v>8</v>
+      <c r="B22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -814,25 +1111,25 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -840,122 +1137,116 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="17" t="n">
         <v>5</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B32" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E32" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="11" t="n">
-        <v>0</v>
+      <c r="G32" s="18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="B33" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -965,76 +1256,722 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="B35" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="B36" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="B37" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="W40" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="X40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA40" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB40" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6"/>
+      <c r="B41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB41" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="T50" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB50" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE50" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF50" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" s="21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="21" t="n">
+        <f aca="false">SUM(B33+D33+F33)</f>
+        <v>37</v>
+      </c>
+      <c r="C61" s="21" t="n">
+        <f aca="false">SUM(C33+E33+G33)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1949,12 +2886,15 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="Email: facundomorales124@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId2" display="Repositorio: https://github.com/facundonmorales/wordix"/>
+    <hyperlink ref="A6" r:id="rId1" display="facundonmorales124@gmai.com"/>
+    <hyperlink ref="F6" r:id="rId2" display="navarropabloq@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId3" display="Repositorio: https://github.com/facundonmorales/wordix"/>
+    <hyperlink ref="F8" r:id="rId4" display="Repositorio: https://github.com/facundonmorales/wordix"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="117">
   <si>
     <t xml:space="preserve">DISEÑO ESTRUCTURAS: WORDIX</t>
   </si>
@@ -116,7 +116,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve">: FAI-4284</t>
     </r>
   </si>
   <si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Repositorio: https://github.com/facundonmorales/wordix</t>
   </si>
   <si>
-    <t xml:space="preserve">$coleccionPalabras=</t>
+    <t xml:space="preserve">$coleccionPalabrasF=</t>
   </si>
   <si>
     <t xml:space="preserve">//indices</t>
@@ -223,22 +223,22 @@
     <t xml:space="preserve">PISOS</t>
   </si>
   <si>
-    <t xml:space="preserve">NEGRO</t>
+    <t xml:space="preserve">PERRO</t>
   </si>
   <si>
     <t xml:space="preserve">LIBRO</t>
   </si>
   <si>
-    <t xml:space="preserve">PERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCO</t>
+    <t xml:space="preserve">CAMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABLA</t>
   </si>
   <si>
     <t xml:space="preserve">//valores</t>
@@ -247,13 +247,53 @@
     <t xml:space="preserve">Información de la estructura:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de datos: Almacena valores String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Guarda las palabras con las que se pueden jugar</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Indexado (los índices son numéricos)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tipos de datos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Almacena valores String</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utiliza?: Guarda las palabras con las que se pueden jugar</t>
   </si>
   <si>
     <t xml:space="preserve">$partida =</t>
@@ -280,7 +320,7 @@
     <t xml:space="preserve">Tipos de datos:  Almacena Int y String</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Guarda el resumen de la partida/resultado</t>
+    <t xml:space="preserve">¿Para qué se utiliza?: Guarda el resumen de la partida/resultado</t>
   </si>
   <si>
     <t xml:space="preserve">$coleccionPartidas =</t>
@@ -289,19 +329,46 @@
     <t xml:space="preserve">“palabraWordix” =&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">GOTAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">“jugador” =&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">pablo</t>
   </si>
   <si>
+    <t xml:space="preserve">luca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vladi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabiola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bauti</t>
+  </si>
+  <si>
     <t xml:space="preserve">“intentos” =&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">“puntaje” =&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo: Multidimensional</t>
+    <t xml:space="preserve">Tipo: Multidimensional (Indexado-Asociativo)</t>
   </si>
   <si>
     <t xml:space="preserve">Tipos de datos:  Almacena arreglos: jugador y  palabraWordix almacenan String, el array intentos almacena Int,</t>
@@ -403,7 +470,7 @@
     <t xml:space="preserve">Tipos de datos:  Almacena String</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Almacena el estado de las letras por su color</t>
+    <t xml:space="preserve">¿Para qué se utiliza?: Almacena el estado de las letras por su color</t>
   </si>
   <si>
     <t xml:space="preserve">$ordenTeclado=</t>
@@ -412,7 +479,7 @@
     <t xml:space="preserve">/n</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Para qué se utilizada?: Almacena el orden en el que se muestra el teclado por pantalla</t>
+    <t xml:space="preserve">¿Para qué se utiliza?: Almacena el orden en el que se muestra el teclado por pantalla</t>
   </si>
   <si>
     <t xml:space="preserve">$resumenJugador=</t>
@@ -521,7 +588,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,20 +597,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAEBD7"/>
-        <bgColor rgb="FFF0FFF0"/>
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0FFFF"/>
+        <bgColor rgb="FFF0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF0"/>
         <bgColor rgb="FFF0FFF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF7F"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -554,23 +627,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF7F"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor rgb="FFF0FFF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF0"/>
-        <bgColor rgb="FFE0FFFF"/>
+        <bgColor rgb="FFF0FFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -613,7 +742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,80 +763,160 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -722,13 +931,13 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF0FFF0"/>
+      <rgbColor rgb="FFFFFFF0"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FF7F"/>
+      <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
@@ -739,7 +948,7 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFAEBD7"/>
+      <rgbColor rgb="FFF0FFF0"/>
       <rgbColor rgb="FFE0FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -754,8 +963,8 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFF0FFFF"/>
+      <rgbColor rgb="FF98FB98"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -789,11 +998,11 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.29"/>
@@ -806,1171 +1015,1775 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="S11" s="8" t="n">
+      <c r="S11" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="U11" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
+      <c r="A13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="23" t="s">
         <v>36</v>
       </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="26" t="s">
         <v>37</v>
       </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
+      <c r="A20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="31" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
+      <c r="A23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="26" t="s">
         <v>44</v>
       </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
+      <c r="A28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="17" t="n">
+      <c r="B29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="17" t="n">
+      <c r="E29" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="17" t="n">
+      <c r="F29" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="17" t="n">
+      <c r="G29" s="36" t="n">
         <v>5</v>
       </c>
+      <c r="H29" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" s="36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="H30" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" s="37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E33" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I33" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="K33" s="37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17"/>
+      <c r="B35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17"/>
+      <c r="B36" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17"/>
+      <c r="B37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17"/>
+      <c r="B38" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="38"/>
+    </row>
+    <row r="40" s="39" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="U40" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="W40" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y40" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z40" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA40" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB40" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" s="39" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="X41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB41" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="38"/>
+      <c r="B42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="R42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="T42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="U42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="V42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="W42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="X42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA42" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB42" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="38"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="38"/>
+      <c r="B44" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="38"/>
+      <c r="B45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="38"/>
+      <c r="B46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="38"/>
+      <c r="B47" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="38"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="38"/>
+    </row>
+    <row r="50" s="39" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="R50" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S50" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T50" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="U50" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="V50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="X50" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y50" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z50" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA50" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB50" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC50" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD50" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE50" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF50" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="38"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="38"/>
+      <c r="B52" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="38"/>
+      <c r="B53" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="38"/>
+      <c r="B54" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="38"/>
+      <c r="B55" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="38"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K58" s="15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="18" t="n">
+      <c r="D59" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="D61" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="18" t="n">
+      <c r="F61" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="18" t="n">
+      <c r="G61" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="K61" s="41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C33" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D33" s="18" t="n">
+      <c r="D62" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F33" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="G33" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+      <c r="E62" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="38"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="38"/>
+      <c r="B70" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="O40" s="19" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="38"/>
+      <c r="B71" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="38"/>
+      <c r="B72" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="38"/>
+      <c r="B73" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+    </row>
+    <row r="75" s="39" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="F75" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Q40" s="19" t="s">
+      <c r="D80" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="R40" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S40" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="V40" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="W40" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="X40" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y40" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z40" s="19" t="s">
+      <c r="G80" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AA40" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB40" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB42" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="38"/>
+      <c r="B84" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14" t="s">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="38"/>
+      <c r="B85" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P50" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q50" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="R50" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="S50" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="T50" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U50" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="V50" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="W50" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="X50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y50" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z50" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA50" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB50" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC50" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD50" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE50" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF50" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C60" s="21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="21" t="n">
-        <f aca="false">SUM(B33+D33+F33)</f>
-        <v>37</v>
-      </c>
-      <c r="C61" s="21" t="n">
-        <f aca="false">SUM(C33+E33+G33)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" s="21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C77" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C81" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C82" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="A86" s="38"/>
+      <c r="B86" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="A87" s="38"/>
+      <c r="B87" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2887,18 +3700,18 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="facundonmorales124@gmai.com"/>
-    <hyperlink ref="F6" r:id="rId2" display="navarropabloq@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId3" display="Repositorio: https://github.com/facundonmorales/wordix"/>
-    <hyperlink ref="F8" r:id="rId4" display="Repositorio: https://github.com/facundonmorales/wordix"/>
+    <hyperlink ref="C6" r:id="rId1" display="Email: facundonmorales124@gmai.com"/>
+    <hyperlink ref="H6" r:id="rId2" display="Email: navarropabloq@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId3" display="Repositorio: https://github.com/facundonmorales/wordix"/>
+    <hyperlink ref="H8" r:id="rId4" display="Repositorio: https://github.com/facundonmorales/wordix"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
